--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H2">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I2">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J2">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="O2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q2">
-        <v>3020.802001410823</v>
+        <v>5.437637869900889</v>
       </c>
       <c r="R2">
-        <v>3020.802001410823</v>
+        <v>48.93874082910799</v>
       </c>
       <c r="S2">
-        <v>0.3316982116704775</v>
+        <v>0.0004730165058184966</v>
       </c>
       <c r="T2">
-        <v>0.3316982116704775</v>
+        <v>0.0004752684569682869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H3">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I3">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J3">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>126.723307834671</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N3">
-        <v>126.723307834671</v>
+        <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.589395198342936</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P3">
-        <v>0.589395198342936</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q3">
-        <v>4336.155319155994</v>
+        <v>4.286474129592889</v>
       </c>
       <c r="R3">
-        <v>4336.155319155994</v>
+        <v>38.578267166336</v>
       </c>
       <c r="S3">
-        <v>0.4761301681532707</v>
+        <v>0.0003728775368225038</v>
       </c>
       <c r="T3">
-        <v>0.4761301681532707</v>
+        <v>0.0003746527433691029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02494686995721</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H4">
-        <v>1.02494686995721</v>
+        <v>113.348143</v>
       </c>
       <c r="I4">
-        <v>0.0241975909264513</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J4">
-        <v>0.0241975909264513</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.2823593152297</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N4">
-        <v>88.2823593152297</v>
+        <v>297.946166</v>
       </c>
       <c r="O4">
-        <v>0.410604801657064</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P4">
-        <v>0.410604801657064</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q4">
-        <v>90.48472785258242</v>
+        <v>3752.404958896637</v>
       </c>
       <c r="R4">
-        <v>90.48472785258242</v>
+        <v>33771.64463006974</v>
       </c>
       <c r="S4">
-        <v>0.009935647022934306</v>
+        <v>0.3264192144714556</v>
       </c>
       <c r="T4">
-        <v>0.009935647022934306</v>
+        <v>0.3279732408453781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02494686995721</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H5">
-        <v>1.02494686995721</v>
+        <v>113.348143</v>
       </c>
       <c r="I5">
-        <v>0.0241975909264513</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J5">
-        <v>0.0241975909264513</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>126.723307834671</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N5">
-        <v>126.723307834671</v>
+        <v>416.195305</v>
       </c>
       <c r="O5">
-        <v>0.589395198342936</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P5">
-        <v>0.589395198342936</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q5">
-        <v>129.88465771577</v>
+        <v>5241.662771896512</v>
       </c>
       <c r="R5">
-        <v>129.88465771577</v>
+        <v>47174.96494706861</v>
       </c>
       <c r="S5">
-        <v>0.01426194390351699</v>
+        <v>0.4559687622387725</v>
       </c>
       <c r="T5">
-        <v>0.01426194390351699</v>
+        <v>0.4581395519802748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.55495930897067</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H6">
-        <v>2.55495930897067</v>
+        <v>113.348143</v>
       </c>
       <c r="I6">
-        <v>0.06031908775406283</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J6">
-        <v>0.06031908775406283</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>88.2823593152297</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N6">
-        <v>88.2823593152297</v>
+        <v>1.222236</v>
       </c>
       <c r="O6">
-        <v>0.410604801657064</v>
+        <v>0.002557881890510999</v>
       </c>
       <c r="P6">
-        <v>0.410604801657064</v>
+        <v>0.001706709781021076</v>
       </c>
       <c r="Q6">
-        <v>225.5578357503397</v>
+        <v>23.089696817958</v>
       </c>
       <c r="R6">
-        <v>225.5578357503397</v>
+        <v>138.538180907748</v>
       </c>
       <c r="S6">
-        <v>0.024767307063392</v>
+        <v>0.002008557386598829</v>
       </c>
       <c r="T6">
-        <v>0.024767307063392</v>
+        <v>0.001345413191179952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.55495930897067</v>
+        <v>1.270981</v>
       </c>
       <c r="H7">
-        <v>2.55495930897067</v>
+        <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.06031908775406283</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J7">
-        <v>0.06031908775406283</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>126.723307834671</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N7">
-        <v>126.723307834671</v>
+        <v>0.431756</v>
       </c>
       <c r="O7">
-        <v>0.589395198342936</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P7">
-        <v>0.589395198342936</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q7">
-        <v>323.7728950157485</v>
+        <v>0.1829178908786667</v>
       </c>
       <c r="R7">
-        <v>323.7728950157485</v>
+        <v>1.646261017908</v>
       </c>
       <c r="S7">
-        <v>0.03555178069067082</v>
+        <v>1.591190580638887E-05</v>
       </c>
       <c r="T7">
-        <v>0.03555178069067082</v>
+        <v>1.598765968418231E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.55998267169915</v>
+        <v>1.270981</v>
       </c>
       <c r="H8">
-        <v>4.55998267169915</v>
+        <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.1076549414957373</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J8">
-        <v>0.1076549414957373</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>88.2823593152297</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N8">
-        <v>88.2823593152297</v>
+        <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.410604801657064</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P8">
-        <v>0.410604801657064</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q8">
-        <v>402.5660286941655</v>
+        <v>0.1441936417706667</v>
       </c>
       <c r="R8">
-        <v>402.5660286941655</v>
+        <v>1.297742775936</v>
       </c>
       <c r="S8">
-        <v>0.04420363590026005</v>
+        <v>1.254330910286381E-05</v>
       </c>
       <c r="T8">
-        <v>0.04420363590026005</v>
+        <v>1.260302566456706E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.270981</v>
+      </c>
+      <c r="H9">
+        <v>3.812943</v>
+      </c>
+      <c r="I9">
+        <v>0.02641494196933943</v>
+      </c>
+      <c r="J9">
+        <v>0.02651806969185035</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N9">
+        <v>297.946166</v>
+      </c>
+      <c r="O9">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P9">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q9">
+        <v>126.2279720029487</v>
+      </c>
+      <c r="R9">
+        <v>1136.051748026538</v>
+      </c>
+      <c r="S9">
+        <v>0.01098048742522791</v>
+      </c>
+      <c r="T9">
+        <v>0.01103276365867501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.270981</v>
+      </c>
+      <c r="H10">
+        <v>3.812943</v>
+      </c>
+      <c r="I10">
+        <v>0.02641494196933943</v>
+      </c>
+      <c r="J10">
+        <v>0.02651806969185035</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N10">
+        <v>416.195305</v>
+      </c>
+      <c r="O10">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P10">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q10">
+        <v>176.3254416480683</v>
+      </c>
+      <c r="R10">
+        <v>1586.928974832615</v>
+      </c>
+      <c r="S10">
+        <v>0.01533843302749999</v>
+      </c>
+      <c r="T10">
+        <v>0.0154114566989097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.270981</v>
+      </c>
+      <c r="H11">
+        <v>3.812943</v>
+      </c>
+      <c r="I11">
+        <v>0.02641494196933943</v>
+      </c>
+      <c r="J11">
+        <v>0.02651806969185035</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.222236</v>
+      </c>
+      <c r="O11">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P11">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q11">
+        <v>0.776719366758</v>
+      </c>
+      <c r="R11">
+        <v>4.660316200548</v>
+      </c>
+      <c r="S11">
+        <v>6.756630170227227E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.525864891687955E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H12">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J12">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.431756</v>
+      </c>
+      <c r="O12">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P12">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q12">
+        <v>0.4590664379426668</v>
+      </c>
+      <c r="R12">
+        <v>4.131597941484</v>
+      </c>
+      <c r="S12">
+        <v>3.993388445673412E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.012400289004825E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H13">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J13">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.340352</v>
+      </c>
+      <c r="O13">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P13">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q13">
+        <v>0.3618807388586667</v>
+      </c>
+      <c r="R13">
+        <v>3.256926649728</v>
+      </c>
+      <c r="S13">
+        <v>3.147976505854782E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.162963486699363E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H14">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J14">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N14">
+        <v>297.946166</v>
+      </c>
+      <c r="O14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q14">
+        <v>316.7925520995527</v>
+      </c>
+      <c r="R14">
+        <v>2851.132968895974</v>
+      </c>
+      <c r="S14">
+        <v>0.02755757364662199</v>
+      </c>
+      <c r="T14">
+        <v>0.02768877056870732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.55998267169915</v>
-      </c>
-      <c r="H9">
-        <v>4.55998267169915</v>
-      </c>
-      <c r="I9">
-        <v>0.1076549414957373</v>
-      </c>
-      <c r="J9">
-        <v>0.1076549414957373</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>126.723307834671</v>
-      </c>
-      <c r="N9">
-        <v>126.723307834671</v>
-      </c>
-      <c r="O9">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="P9">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="Q9">
-        <v>577.8560878264969</v>
-      </c>
-      <c r="R9">
-        <v>577.8560878264969</v>
-      </c>
-      <c r="S9">
-        <v>0.06345130559547726</v>
-      </c>
-      <c r="T9">
-        <v>0.06345130559547726</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H15">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J15">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N15">
+        <v>416.195305</v>
+      </c>
+      <c r="O15">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P15">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q15">
+        <v>442.5214615542384</v>
+      </c>
+      <c r="R15">
+        <v>3982.693153988145</v>
+      </c>
+      <c r="S15">
+        <v>0.03849464795232774</v>
+      </c>
+      <c r="T15">
+        <v>0.03867791442538034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.189763000000001</v>
+      </c>
+      <c r="H16">
+        <v>9.569289000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0662932054381191</v>
+      </c>
+      <c r="J16">
+        <v>0.06655202362150626</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.222236</v>
+      </c>
+      <c r="O16">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P16">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q16">
+        <v>1.949321585034</v>
+      </c>
+      <c r="R16">
+        <v>11.695929510204</v>
+      </c>
+      <c r="S16">
+        <v>0.0001695701896540901</v>
+      </c>
+      <c r="T16">
+        <v>0.0001135849896615705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.311165</v>
+      </c>
+      <c r="H17">
+        <v>15.933495</v>
+      </c>
+      <c r="I17">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J17">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.431756</v>
+      </c>
+      <c r="O17">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P17">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q17">
+        <v>0.7643757852466666</v>
+      </c>
+      <c r="R17">
+        <v>6.87938206722</v>
+      </c>
+      <c r="S17">
+        <v>6.649254174703584E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.680910143152425E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.311165</v>
+      </c>
+      <c r="H18">
+        <v>15.933495</v>
+      </c>
+      <c r="I18">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J18">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.340352</v>
+      </c>
+      <c r="O18">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P18">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q18">
+        <v>0.6025552100266666</v>
+      </c>
+      <c r="R18">
+        <v>5.42299689024</v>
+      </c>
+      <c r="S18">
+        <v>5.24158774138336E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.266542049310755E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.311165</v>
+      </c>
+      <c r="H19">
+        <v>15.933495</v>
+      </c>
+      <c r="I19">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J19">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N19">
+        <v>297.946166</v>
+      </c>
+      <c r="O19">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P19">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q19">
+        <v>527.4804162477966</v>
+      </c>
+      <c r="R19">
+        <v>4747.32374623017</v>
+      </c>
+      <c r="S19">
+        <v>0.04588517097880346</v>
+      </c>
+      <c r="T19">
+        <v>0.04610362247525863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.311165</v>
+      </c>
+      <c r="H20">
+        <v>15.933495</v>
+      </c>
+      <c r="I20">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J20">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N20">
+        <v>416.195305</v>
+      </c>
+      <c r="O20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q20">
+        <v>736.8273123601083</v>
+      </c>
+      <c r="R20">
+        <v>6631.445811240975</v>
+      </c>
+      <c r="S20">
+        <v>0.0640961183924087</v>
+      </c>
+      <c r="T20">
+        <v>0.06440126911280716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.311165</v>
+      </c>
+      <c r="H21">
+        <v>15.933495</v>
+      </c>
+      <c r="I21">
+        <v>0.1103825432989058</v>
+      </c>
+      <c r="J21">
+        <v>0.1108134925816486</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.222236</v>
+      </c>
+      <c r="O21">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P21">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q21">
+        <v>3.24574853247</v>
+      </c>
+      <c r="R21">
+        <v>19.47449119482</v>
+      </c>
+      <c r="S21">
+        <v>0.0002823455085328175</v>
+      </c>
+      <c r="T21">
+        <v>0.0001891264716582062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5613635</v>
+      </c>
+      <c r="H22">
+        <v>1.122727</v>
+      </c>
+      <c r="I22">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J22">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.431756</v>
+      </c>
+      <c r="O22">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P22">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q22">
+        <v>0.08079068643533334</v>
+      </c>
+      <c r="R22">
+        <v>0.484744118612</v>
+      </c>
+      <c r="S22">
+        <v>7.027928139873671E-06</v>
+      </c>
+      <c r="T22">
+        <v>4.707591273785878E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5613635</v>
+      </c>
+      <c r="H23">
+        <v>1.122727</v>
+      </c>
+      <c r="I23">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J23">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.340352</v>
+      </c>
+      <c r="O23">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P23">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q23">
+        <v>0.06368706331733333</v>
+      </c>
+      <c r="R23">
+        <v>0.382122379904</v>
+      </c>
+      <c r="S23">
+        <v>5.540095327597726E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.710980519588775E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5613635</v>
+      </c>
+      <c r="H24">
+        <v>1.122727</v>
+      </c>
+      <c r="I24">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J24">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N24">
+        <v>297.946166</v>
+      </c>
+      <c r="O24">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P24">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q24">
+        <v>55.75203418578033</v>
+      </c>
+      <c r="R24">
+        <v>334.512205114682</v>
+      </c>
+      <c r="S24">
+        <v>0.004849832415065158</v>
+      </c>
+      <c r="T24">
+        <v>0.003248614428333501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5613635</v>
+      </c>
+      <c r="H25">
+        <v>1.122727</v>
+      </c>
+      <c r="I25">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J25">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N25">
+        <v>416.195305</v>
+      </c>
+      <c r="O25">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P25">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q25">
+        <v>77.87895103278916</v>
+      </c>
+      <c r="R25">
+        <v>467.273706196735</v>
+      </c>
+      <c r="S25">
+        <v>0.006774638211612127</v>
+      </c>
+      <c r="T25">
+        <v>0.004537927408093117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5613635</v>
+      </c>
+      <c r="H26">
+        <v>1.122727</v>
+      </c>
+      <c r="I26">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J26">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.222236</v>
+      </c>
+      <c r="O26">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P26">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q26">
+        <v>0.343059339393</v>
+      </c>
+      <c r="R26">
+        <v>1.372237357572</v>
+      </c>
+      <c r="S26">
+        <v>2.984250402298974E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.332647960446863E-05</v>
       </c>
     </row>
   </sheetData>
